--- a/src/mujoco_sim/src/fourier_series.xlsx
+++ b/src/mujoco_sim/src/fourier_series.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="20940" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,117 +28,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>0.436529815596277</t>
-  </si>
-  <si>
-    <t>0.933329790585921</t>
-  </si>
-  <si>
-    <t>0.768695054448411</t>
-  </si>
-  <si>
-    <t>0.219911849757966</t>
-  </si>
-  <si>
-    <t>0.253077221372798</t>
-  </si>
-  <si>
-    <t>0.271656473004395</t>
-  </si>
-  <si>
-    <t>0.363726222717897</t>
-  </si>
-  <si>
-    <t>0.284679539996471</t>
-  </si>
-  <si>
-    <t>0.424037576521661</t>
-  </si>
-  <si>
-    <t>0.934816362595658</t>
-  </si>
-  <si>
-    <t>0.0949621848053851</t>
-  </si>
-  <si>
-    <t>0.138132799336873</t>
-  </si>
-  <si>
-    <t>0.313934990085083</t>
-  </si>
-  <si>
-    <t>0.963349622193698</t>
-  </si>
-  <si>
-    <t>0.118634502981043</t>
-  </si>
-  <si>
-    <t>0.196908811173341</t>
-  </si>
-  <si>
-    <t>0.329891919274518</t>
-  </si>
-  <si>
-    <t>0.463369506548722</t>
-  </si>
-  <si>
-    <t>0.324538067893471</t>
-  </si>
-  <si>
-    <t>0.519498166071265</t>
-  </si>
-  <si>
-    <t>0.284884470757614</t>
-  </si>
-  <si>
-    <t>1.18377526098748</t>
-  </si>
-  <si>
-    <t>0.266005490632021</t>
-  </si>
-  <si>
-    <t>0.338549368287745</t>
-  </si>
-  <si>
-    <t>0.278594367805830</t>
-  </si>
-  <si>
-    <t>0.429454736518934</t>
-  </si>
-  <si>
-    <t>2.01579991488268</t>
-  </si>
-  <si>
-    <t>0.472903308049267</t>
-  </si>
-  <si>
-    <t>0.332189742973168</t>
-  </si>
-  <si>
-    <t>0.706719734208447</t>
-  </si>
-  <si>
-    <t>0.596886872364853</t>
-  </si>
-  <si>
-    <t>0.469091980652471</t>
-  </si>
-  <si>
-    <t>1.37956509599704</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -749,17 +646,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,343 +966,343 @@
   <sheetPr/>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:1">
-      <c r="A2" s="2">
-        <v>-0.698805501764525</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="2">
-        <v>-0.0902290791663449</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:1">
-      <c r="A4" s="2">
-        <v>-0.58083419291994</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:1">
-      <c r="A6" s="2">
-        <v>-0.114908982794425</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:1">
-      <c r="A8" s="2">
-        <v>-0.262774722963852</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:1">
-      <c r="A10" s="2">
-        <v>-0.389057951639413</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:1">
-      <c r="A12" s="2">
-        <v>-0.00448042230520481</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:1">
-      <c r="A14" s="2">
-        <v>-0.272891831098386</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:1">
-      <c r="A16" s="2">
-        <v>-0.29993161480773</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:1">
-      <c r="A18" s="2">
-        <v>-1.12538110246353</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:1">
-      <c r="A20" s="2">
-        <v>-0.946870584022369</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:1">
-      <c r="A21" s="2">
-        <v>-0.131072769160622</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:1">
-      <c r="A25" s="2">
-        <v>-0.95251912672275</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="2">
-        <v>-0.937725411134595</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:1">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:1">
-      <c r="A29" s="2">
-        <v>-1.02744888780452</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:1">
-      <c r="A30" s="2">
-        <v>-0.702797753946458</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:1">
-      <c r="A31" s="2">
-        <v>-0.19775444143178</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:1">
-      <c r="A32" s="2">
-        <v>-0.456900082082771</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:1">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:1">
-      <c r="A34" s="2">
-        <v>-0.489411356774236</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:1">
-      <c r="A35" s="2">
-        <v>-0.729241165713082</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:1">
-      <c r="A36" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:1">
-      <c r="A37" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:1">
-      <c r="A38" s="2">
-        <v>-0.100003387350982</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:1">
-      <c r="A39" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:1">
-      <c r="A40" s="2">
-        <v>-0.10103319894569</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:1">
-      <c r="A41" s="2">
-        <v>-0.208380953619412</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:1">
-      <c r="A44" s="2">
-        <v>-0.729778900724797</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:1">
-      <c r="A45" s="2">
-        <v>-1.10542633712039</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="1:1">
-      <c r="A46" s="2">
-        <v>-0.217055678396812</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" ht="15" spans="1:1">
-      <c r="A50" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" ht="15" spans="1:1">
-      <c r="A51" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="1:1">
-      <c r="A52" s="2">
-        <v>-0.775597576169578</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:1">
-      <c r="A53" s="2">
-        <v>-0.894145022073557</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="1:1">
-      <c r="A54" s="2">
-        <v>-0.633291626962505</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="1:1">
-      <c r="A55" s="2">
-        <v>-0.208303099294237</v>
-      </c>
-    </row>
-    <row r="56" ht="15" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" ht="15" spans="1:1">
-      <c r="A57" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" ht="15" spans="1:1">
-      <c r="A59" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" ht="15" spans="1:1">
-      <c r="A60" s="2">
-        <v>-0.0214549644116992</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:1">
-      <c r="A62" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="1:1">
-      <c r="A63" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" ht="15" spans="1:1">
-      <c r="A64" s="2">
-        <v>-1.15672821579613</v>
-      </c>
-    </row>
-    <row r="65" ht="15" spans="1:1">
-      <c r="A65" s="2">
-        <v>-0.0276929080029712</v>
-      </c>
-    </row>
-    <row r="66" ht="15" spans="1:1">
-      <c r="A66" s="3" t="s">
-        <v>32</v>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>0.706118153025695</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
+        <v>0.349004494311509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>-0.165778640187406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>0.532323632889091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>0.269600330451015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>-0.196780128941933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>0.745401517970662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>0.308328760796912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>0.11799892903396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>0.281969174658134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>0.580263724541209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>-0.062072220186309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>0.373400428834678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>-0.494797338235255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>0.518802716169655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>0.108431168299368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>0.14184870060229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>-0.158407271322934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>-0.647669696755917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>-0.186508290932257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>1.18551496300228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>1.63005144035503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>0.700896743701285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
+        <v>0.113526456870519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>0.963472408120967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>0.220681319729293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
+        <v>0.268475769886507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>0.00613321294600205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>0.315179684409125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>0.455599792260353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>0.0873268658050627</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <v>-2.00959466696482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
+        <v>-0.102651061870439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <v>0.501095241790964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <v>-0.56202623923302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
+        <v>-0.177570232376616</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1">
+        <v>-1.49939690349696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <v>-0.743657412933039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1">
+        <v>0.23788520555931</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1">
+        <v>-0.0452879761605719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
+        <v>-0.289591292738361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>-0.792553452364369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1">
+        <v>1.37653853251936</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>-1.2590434173982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
+        <v>-0.485545383472315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>-0.564423802515668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>-0.441547498479867</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>-1.92148846909726</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1">
+        <v>0.970491557205065</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1">
+        <v>-0.203988561843468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1">
+        <v>0.677485963659447</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1">
+        <v>0.465019839084892</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1">
+        <v>-1.18614133354178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1">
+        <v>0.335911856362185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1">
+        <v>0.0961424308662465</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1">
+        <v>0.557540737293628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1">
+        <v>0.505809034547565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1">
+        <v>-0.827931044971844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1">
+        <v>1.13863521201256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1">
+        <v>0.560436671855221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1">
+        <v>-1.03179365211884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1">
+        <v>0.766944558319749</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1">
+        <v>1.28035865616342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1">
+        <v>-0.588185548617233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>0.235415201784008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1">
+        <v>-0.511680756363226</v>
       </c>
     </row>
   </sheetData>
@@ -1430,7 +1321,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1447,7 +1338,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
